--- a/data/epas333.xlsx
+++ b/data/epas333.xlsx
@@ -136,13 +136,13 @@
     <t xml:space="preserve">ΑΡΙΘ. ΦΟΙΤΗΣΕΩΝ</t>
   </si>
   <si>
-    <t xml:space="preserve">aigal A2</t>
+    <t xml:space="preserve">ΒΟΗΘΟΣ ΙΑΤΡ</t>
   </si>
   <si>
     <t xml:space="preserve">2025/2026</t>
   </si>
   <si>
-    <t xml:space="preserve">ΒΟΗΘΟΣ ΕΡΓΟΘΕΡΑΠΕΙΑΣ 2</t>
+    <t xml:space="preserve">ΒΟΗΘΟΣ ΙΑΤΡΙΚΩΝ ΕΡΓΑΣΤΗΡΙΩΝ</t>
   </si>
   <si>
     <t xml:space="preserve">Β</t>
@@ -217,7 +217,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -247,6 +247,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -327,7 +332,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -474,15 +479,15 @@
   </sheetPr>
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.89"/>
@@ -515,6 +520,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="24.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="22.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="17.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="21.62"/>
   </cols>
   <sheetData>

--- a/data/epas333.xlsx
+++ b/data/epas333.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">ΤΜΗΜΑ ΕΙΣΑΓΩΓΗΣ</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t xml:space="preserve">ΝΑΙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">er</t>
   </si>
   <si>
     <t xml:space="preserve">28/07/2025</t>
@@ -251,6 +254,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -479,15 +483,15 @@
   </sheetPr>
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG2" activeCellId="0" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.89"/>
@@ -520,7 +524,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="24.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="22.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="17.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="17.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="21.62"/>
   </cols>
   <sheetData>
@@ -739,17 +743,17 @@
       <c r="AF2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="1" t="n">
-        <v>1</v>
+      <c r="AG2" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK2" s="1" t="n">
         <v>10.5</v>

--- a/data/epas333.xlsx
+++ b/data/epas333.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">ΤΜΗΜΑ ΕΙΣΑΓΩΓΗΣ</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t xml:space="preserve">ΝΑΙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">er</t>
   </si>
   <si>
     <t xml:space="preserve">28/07/2025</t>
@@ -743,17 +740,17 @@
       <c r="AF2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AI2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="AK2" s="1" t="n">
         <v>10.5</v>
